--- a/student_schedule/2025春期講習日程(中学生)  (1).xlsx
+++ b/student_schedule/2025春期講習日程(中学生)  (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="850" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="850" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="生徒用" sheetId="2" r:id="rId1"/>
@@ -5409,7 +5409,7 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -8762,8 +8762,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16549,7 +16549,7 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -21087,8 +21087,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
